--- a/output/barplot_values_germany_data.xlsx
+++ b/output/barplot_values_germany_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,11 +785,11 @@
         <v>41.02</v>
       </c>
       <c r="I7" t="n">
-        <v>102.96</v>
+        <v>92.44</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="K7" t="b">
@@ -901,7 +901,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -911,22 +911,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>final energy demand industry</t>
+          <t>Final energy demand per capita excluding feedstock</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year | industry</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>13.9</v>
+        <v>54.07</v>
       </c>
       <c r="I10" t="n">
-        <v>29.12</v>
+        <v>102.96</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>per capita Total FEC of industry (excl. consumption of the energy sector)</t>
+          <t>final energy demand industry</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>17.65</v>
+        <v>13.9</v>
       </c>
       <c r="I11" t="n">
         <v>29.12</v>
@@ -1003,7 +1003,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Final energy demand per capita industry</t>
+          <t>per capita Total FEC of industry (excl. consumption of the energy sector)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>18.78</v>
+        <v>17.65</v>
       </c>
       <c r="I12" t="n">
         <v>29.12</v>
@@ -1054,7 +1054,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1074,28 +1074,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cement production</t>
+          <t>Final energy demand per capita industry</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>cement production per capita and year</t>
+          <t>final energy demand per capita and year | industry</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>t/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.21</v>
+        <v>18.78</v>
       </c>
       <c r="I13" t="n">
-        <v>0.41</v>
+        <v>31.36</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="K13" t="b">
@@ -1105,7 +1105,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cement production per capita and year</t>
+          <t>cement production</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I14" t="n">
         <v>0.41</v>
@@ -1156,7 +1156,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Production of cement per capita</t>
+          <t>Cement production per capita and year</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I15" t="n">
         <v>0.41</v>
@@ -1227,12 +1227,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Production of crude steel per capita</t>
+          <t>Production of cement per capita</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>steel production per capita and year</t>
+          <t>cement production per capita and year</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.44</v>
+        <v>0.23</v>
       </c>
       <c r="I16" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Steel production</t>
+          <t>Production of crude steel per capita</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1309,7 +1309,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1319,34 +1319,34 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Living space per person</t>
+          <t>Steel production</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>steel production per capita and year</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>t/cap/year</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>0.44</v>
       </c>
       <c r="I18" t="n">
-        <v>45.4</v>
+        <v>0.48</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>living space per person</t>
+          <t>Living space per person</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1390,11 +1390,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I19" t="n">
         <v>45.4</v>
@@ -1411,7 +1411,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>living space</t>
+          <t>living space per person</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1441,11 +1441,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>37.07</v>
+        <v>32</v>
       </c>
       <c r="I20" t="n">
         <v>45.4</v>
@@ -1462,7 +1462,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Living space per capita</t>
+          <t>living space</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>41.17</v>
+        <v>37.07</v>
       </c>
       <c r="I21" t="n">
         <v>45.4</v>
@@ -1513,7 +1513,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Per capita residential floor area</t>
+          <t>Living space per capita</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>41.2</v>
+        <v>41.17</v>
       </c>
       <c r="I22" t="n">
         <v>45.4</v>
@@ -1564,7 +1564,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>floor area in commercial and public buildings</t>
+          <t>Per capita residential floor area</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1598,14 +1598,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>20.22</v>
+        <v>41.2</v>
       </c>
       <c r="I23" t="n">
-        <v>20.57</v>
+        <v>45.4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="K23" t="b">
@@ -1615,7 +1615,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1625,38 +1625,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>food waste per capita and year</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>kg/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>65.5</v>
+        <v>20.22</v>
       </c>
       <c r="I24" t="n">
-        <v>131</v>
+        <v>20.57</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>BMEL - German federal ministry of agriculture and food</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="K24" t="b">
@@ -1666,7 +1666,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Food waste per capita and year</t>
+          <t>food waste per capita and year</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1737,31 +1737,82 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>Food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>food waste per capita and year</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>kg/cap/year</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>131</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>BMEL - German federal ministry of agriculture and food</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>meat consumption</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>meat consumption per capita and day</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>kg/cap/day</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>0.04</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>325</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t xml:space="preserve">FAOSTAT - Food and Agriculture Organization of the United Nations </t>
         </is>
       </c>
-      <c r="K26" t="b">
+      <c r="K27" t="b">
         <v>0</v>
       </c>
     </row>
